--- a/data/trans_dic/P36BPD01_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.9095739778784974</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9227567519625944</v>
+        <v>0.9227567519625945</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.9158045897612753</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8505898560165081</v>
+        <v>0.8512560485870758</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8698349828933131</v>
+        <v>0.8690194573885536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.879746651149958</v>
+        <v>0.8813143235548089</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9489753795875809</v>
+        <v>0.9509160398302059</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9572365866024758</v>
+        <v>0.9561360054101004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9446549981735283</v>
+        <v>0.9441730569449887</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9318901642284079</v>
+        <v>0.931890164228408</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9283464672049201</v>
+        <v>0.9283464672049202</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.9300801089062291</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8970964315112001</v>
+        <v>0.8958742308472488</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9004789625692438</v>
+        <v>0.8977323079478319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9095960095165434</v>
+        <v>0.9090157456182424</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9596764327451578</v>
+        <v>0.9561915876257809</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9494613491731988</v>
+        <v>0.9502234305234043</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9490105321552891</v>
+        <v>0.9473609455702261</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.9375418274572549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9246256929655103</v>
+        <v>0.9246256929655106</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8844614994642113</v>
+        <v>0.8859533296291694</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9206672396292286</v>
+        <v>0.9188073211161555</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9072245907808704</v>
+        <v>0.9094269856738667</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9348632344084218</v>
+        <v>0.933652304297993</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9523664076765388</v>
+        <v>0.9523927520013525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9378874998136602</v>
+        <v>0.9384347632972844</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9382981256683888</v>
+        <v>0.9382981256683885</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9475372885784653</v>
+        <v>0.9475372885784654</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.9430411162200615</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9174098554400406</v>
+        <v>0.917974850112462</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9330975819652781</v>
+        <v>0.9344471663283036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9306108495865372</v>
+        <v>0.9313730920995106</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.954887286310653</v>
+        <v>0.9559700315135325</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9603238967191319</v>
+        <v>0.9602225150550265</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9535684722772314</v>
+        <v>0.9541724108363799</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9583685552086881</v>
+        <v>0.9583685552086879</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9572263342362428</v>
+        <v>0.9572263342362431</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9577965394443733</v>
+        <v>0.9577965394443735</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9400246358026676</v>
+        <v>0.9413903599760555</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9431791363775969</v>
+        <v>0.9424721082308501</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9468293475436277</v>
+        <v>0.947013713728734</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9726233951827485</v>
+        <v>0.9735183477596454</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9689830610116327</v>
+        <v>0.9684347846467738</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9671220749026388</v>
+        <v>0.9674013327418095</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.963127406885987</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9590661577183819</v>
+        <v>0.9590661577183818</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9610197886650207</v>
+        <v>0.961019788665021</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9430166982734723</v>
+        <v>0.9452034163194032</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9433927483775919</v>
+        <v>0.9440802315920004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9485803080565963</v>
+        <v>0.9484707998437353</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.975576257656212</v>
+        <v>0.9775978201332537</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9708291546526898</v>
+        <v>0.9705156271417195</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.970654635934471</v>
+        <v>0.9703826573711761</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9669297902953986</v>
+        <v>0.9669297902953988</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9606785730162803</v>
+        <v>0.9606785730162802</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9631730464916385</v>
+        <v>0.9631730464916388</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9460448635681221</v>
+        <v>0.9465670910734056</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9445266141888976</v>
+        <v>0.9464756387987898</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9513219100627213</v>
+        <v>0.9524712197174702</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9807201924652802</v>
+        <v>0.9808323840924885</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9717168336164705</v>
+        <v>0.9723324931017154</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9731112763565355</v>
+        <v>0.9729167738003304</v>
       </c>
     </row>
     <row r="25">
@@ -952,10 +952,10 @@
         <v>0.9383096611965812</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.945491899269591</v>
+        <v>0.9454918992695911</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.94200582616819</v>
+        <v>0.9420058261681897</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9281728959894934</v>
+        <v>0.9277878877554724</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9381978510372525</v>
+        <v>0.9376886563649253</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9363086974335911</v>
+        <v>0.9357612796942113</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9479250832364347</v>
+        <v>0.9471569194369982</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9520643329215916</v>
+        <v>0.9519599897092575</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9484185179452294</v>
+        <v>0.9476630692410426</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>341304</v>
+        <v>341572</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>312802</v>
+        <v>312509</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>669370</v>
+        <v>670563</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>380782</v>
+        <v>381561</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>344233</v>
+        <v>343837</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>718757</v>
+        <v>718390</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>427816</v>
+        <v>427233</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>448357</v>
+        <v>446990</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>886674</v>
+        <v>886109</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>457660</v>
+        <v>455998</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>472746</v>
+        <v>473126</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>925095</v>
+        <v>923487</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>546647</v>
+        <v>547569</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>572783</v>
+        <v>571626</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1125136</v>
+        <v>1127868</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>577798</v>
+        <v>577049</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>592504</v>
+        <v>592521</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1163164</v>
+        <v>1163843</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>639848</v>
+        <v>640242</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>686514</v>
+        <v>687507</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1333739</v>
+        <v>1334832</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>665986</v>
+        <v>666741</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>706546</v>
+        <v>706471</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1366642</v>
+        <v>1367507</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>569895</v>
+        <v>570723</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>573623</v>
+        <v>573193</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1149863</v>
+        <v>1150087</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>589658</v>
+        <v>590200</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>589316</v>
+        <v>588983</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1174507</v>
+        <v>1174846</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>383883</v>
+        <v>384773</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>414306</v>
+        <v>414608</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>802732</v>
+        <v>802640</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>397138</v>
+        <v>397961</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>426355</v>
+        <v>426217</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>821413</v>
+        <v>821182</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>291855</v>
+        <v>292016</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>438836</v>
+        <v>439741</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>735476</v>
+        <v>736364</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>302552</v>
+        <v>302587</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>451468</v>
+        <v>451754</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>752321</v>
+        <v>752171</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3262981</v>
+        <v>3261627</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3496994</v>
+        <v>3495096</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6781534</v>
+        <v>6777569</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3332419</v>
+        <v>3329719</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3548679</v>
+        <v>3548290</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6869244</v>
+        <v>6863772</v>
       </c>
     </row>
     <row r="36">
